--- a/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_ThanhGiang.xlsx
+++ b/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_ThanhGiang.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Week</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Review and consume, PP slide</t>
+  </si>
+  <si>
+    <t>Planning and controlling</t>
+  </si>
+  <si>
+    <t>Architect Design Document</t>
+  </si>
+  <si>
+    <t>Architecture Drivers</t>
   </si>
 </sst>
 </file>
@@ -1275,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1364,9 @@
       <c r="J6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="82"/>
+      <c r="L6" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="M6" s="82"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1394,9 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="74"/>
-      <c r="L7" s="83"/>
+      <c r="L7" s="83" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="84"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,7 +1422,9 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
-      <c r="L8" s="83"/>
+      <c r="L8" s="83" t="s">
+        <v>51</v>
+      </c>
       <c r="M8" s="84"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1450,9 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
-      <c r="L9" s="83"/>
+      <c r="L9" s="83" t="s">
+        <v>50</v>
+      </c>
       <c r="M9" s="84"/>
     </row>
     <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">

--- a/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_ThanhGiang.xlsx
+++ b/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_ThanhGiang.xlsx
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1367,9 @@
       <c r="L6" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="82"/>
+      <c r="M6" s="82">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85">
@@ -1397,7 +1399,9 @@
       <c r="L7" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="84"/>
+      <c r="M7" s="84">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="86"/>
@@ -1425,7 +1429,9 @@
       <c r="L8" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="84"/>
+      <c r="M8" s="84">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86"/>
@@ -1453,7 +1459,9 @@
       <c r="L9" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="84"/>
+      <c r="M9" s="84">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
